--- a/data/trans_bre/P19C06-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Dificultad-trans_bre.xlsx
@@ -662,25 +662,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.293219516671295</v>
+        <v>-2.147923074511804</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5106350274027206</v>
+        <v>-0.5299515862451208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.077948437445649</v>
+        <v>-1.02282356811278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4795194599065275</v>
+        <v>0.533362894928424</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.7083282364909876</v>
+        <v>-0.682856826821721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3533790171994572</v>
+        <v>-0.3938747512647667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5496684362146492</v>
+        <v>-0.5443126560624262</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.023479446843329</v>
+        <v>1.067758823230404</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.732942513027649</v>
+        <v>1.762494250757577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.453210817636844</v>
+        <v>1.42935477527249</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.053613375683259</v>
+        <v>2.042192515917614</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.270972465597374</v>
+        <v>1.386018709153754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.528247768270358</v>
+        <v>3.327523803970367</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.794229463418927</v>
+        <v>1.814148182665631</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.249426165682413</v>
+        <v>-1.289677657751509</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.106359407933441</v>
+        <v>-1.283958934527136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.320491328170862</v>
+        <v>-1.334414939792733</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5693822159985625</v>
+        <v>-0.7316145670465802</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.845510734867216</v>
+        <v>-0.8671372711525913</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5888732386381468</v>
+        <v>-0.6590374597012031</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8537043751019844</v>
+        <v>-0.7953393899629717</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4801603866001617</v>
+        <v>-0.5312038032480582</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4132479534290935</v>
+        <v>0.4236493260192788</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.222661561897301</v>
+        <v>1.089309296896162</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6141491234687293</v>
+        <v>0.7781701753628616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.025222481189318</v>
+        <v>0.9916935608210293</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9163639166313051</v>
+        <v>1.278418023850887</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.554922728332287</v>
+        <v>1.382463866979761</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.448394861525243</v>
+        <v>2.254012765142963</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.233340914191608</v>
+        <v>2.500564583424705</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
         <v>0.4180788649331607</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.1905349492795534</v>
+        <v>-0.1905349492795529</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3879313530820814</v>
@@ -847,7 +847,7 @@
         <v>0.2487826756776544</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.157691581342687</v>
+        <v>-0.1576915813426866</v>
       </c>
     </row>
     <row r="11">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4592370220914481</v>
+        <v>-0.5563600009167785</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8938430778596712</v>
+        <v>-0.9291559642071632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.111965781142814</v>
+        <v>-1.1967482628016</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.406750853033844</v>
+        <v>-1.270192916059318</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5639482357393508</v>
+        <v>-0.5765942791327072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5087791920320865</v>
+        <v>-0.5522553889378262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4584110877259163</v>
+        <v>-0.4942520088794876</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.678067174942957</v>
+        <v>-0.6741046866062043</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.200846758834099</v>
+        <v>0.9754053024903468</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.614382693740148</v>
+        <v>1.458945500214962</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.922377625636958</v>
+        <v>2.046290288424041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6437179113858789</v>
+        <v>0.585552765973706</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.997415962767645</v>
+        <v>3.244474245987572</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.348650991158758</v>
+        <v>2.112409676286342</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.005928575164622</v>
+        <v>2.208331346574112</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.046029015229946</v>
+        <v>0.8889701716996288</v>
       </c>
     </row>
     <row r="13">
@@ -960,24 +960,24 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.764924409130008</v>
+        <v>-1.803977480060735</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2340469260710032</v>
+        <v>0.235821801180857</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.6992891927367002</v>
+        <v>-0.7048056039164492</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.1087820090285642</v>
+        <v>-0.0801211168351257</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8019502035573779</v>
+        <v>-0.78179324401133</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>-0.3352184684745325</v>
+        <v>-0.1848501520535311</v>
       </c>
     </row>
     <row r="15">
@@ -988,24 +988,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.555564270860539</v>
+        <v>2.210133416160223</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.912690161927855</v>
+        <v>2.125998857232817</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.494793829509151</v>
+        <v>1.413926371487274</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.636652504433459</v>
+        <v>1.625854982998531</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.382604855300584</v>
+        <v>3.704701270256347</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>5.692059563947735</v>
+        <v>6.217880485042069</v>
       </c>
     </row>
     <row r="16">
@@ -1029,7 +1029,7 @@
         <v>0.1454097076501794</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.35435581987122</v>
+        <v>0.3543558198712199</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.03539217623815401</v>
@@ -1041,7 +1041,7 @@
         <v>0.1216788419691754</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4708126424777853</v>
+        <v>0.4708126424777851</v>
       </c>
     </row>
     <row r="17">
@@ -1052,28 +1052,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6177208447605244</v>
+        <v>-0.6199872023528484</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.2000712214174101</v>
+        <v>-0.1471293622207616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4981881130881348</v>
+        <v>-0.4821838738924542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.1170191628579419</v>
+        <v>-0.127534406041719</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4465672594179786</v>
+        <v>-0.4529733060091507</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1621017252852579</v>
+        <v>-0.1475830907847432</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3359335129137886</v>
+        <v>-0.3299079537363397</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1114393686148019</v>
+        <v>-0.1457143774005808</v>
       </c>
     </row>
     <row r="18">
@@ -1084,28 +1084,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4858158305953465</v>
+        <v>0.4991596274797239</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9982314136223888</v>
+        <v>0.9443263726407879</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7598618192479759</v>
+        <v>0.7405516836509541</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7698821956931727</v>
+        <v>0.7819152399396987</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6135201276346722</v>
+        <v>0.6311823969842474</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.400902826941891</v>
+        <v>1.295894843214515</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.823469373833795</v>
+        <v>0.8057007136897629</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.537515054058933</v>
+        <v>1.513148843437412</v>
       </c>
     </row>
     <row r="19">
